--- a/downloads/list2_with_colon_matched_filtered_rename.xlsx
+++ b/downloads/list2_with_colon_matched_filtered_rename.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
